--- a/output/excel/zukizukizuki_2025-06-07.xlsx
+++ b/output/excel/zukizukizuki_2025-06-07.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="141">
   <si>
     <t>スキルシート</t>
   </si>
@@ -97,6 +97,12 @@
 ・チームリーダーとしてメンバーを統括した経験</t>
   </si>
   <si>
+    <t>外部リンク</t>
+  </si>
+  <si>
+    <t>zenn: https://zenn.dev/zuzuzu</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -147,12 +153,15 @@
   </si>
   <si>
     <t xml:space="preserve">■DC常駐業務
-申請書作成およびマクロ作成
-サーバ停止起動
-サーバ外観チェック
-バックアップ媒体管理
-障害連絡
-DC入館アテンド</t>
+・申請書作成およびマクロ作成
+・サーバ停止起動
+・サーバ外観チェック
+・バックアップ媒体管理
+・障害連絡
+・DC入館アテンド
+■成果・自己PR
+・申請書を代筆する業務で申請数が多く多大な労力が必要でした。そこで他3名のメンバーと協力し、Outlookにて送付された申請書作成依頼内容を自動で抽出し、必要な申請書を作成するVBAツールを作成しました。
+・VBAを用いて20ほどある台帳の整合性を確認するツールを作成しました。本来はメンバーが交代で月30時間の工数をかけて目視によるチェックを行っていましたが、VBAマクロを導入し、**その工数分の時間がボタン1回クリックするだけの時間に削減**できました。</t>
   </si>
   <si>
     <t>VBA, VBS, Batch</t>
@@ -161,7 +170,8 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">ヘルプデスク  </t>
+    <t xml:space="preserve">役割: ヘルプデスク  
+規模: 11～50名  </t>
   </si>
   <si>
     <t>●</t>
@@ -171,11 +181,14 @@
   </si>
   <si>
     <t xml:space="preserve">■インフラ監視、運用保守業務
-障害アラート対応
-DC駆けつけ対応
-サーバ設定変更作業
-月次報告書作成およびマクロ作成
-シェルスクリプトの作成</t>
+・障害アラート対応
+・DC駆けつけ対応
+・サーバ設定変更作業
+・月次報告書作成およびマクロ作成
+・シェルスクリプトの作成
+■成果・自己PR
+・Linux踏み台サーバから違うお客様の環境に誤ってログインしてしまう事象が頻発していました。そこでお客様環境ごとにIDを割り当て、スクリプト実行後にIDを指定し対象の環境にログインするスクリプトを作成・保守し、**ログインによるミスを削減**しました。
+・**1チーム6名のチームにてチームリーダーを経験**。メンバーからエスカレーションを受ける立場として慎重かつ迅速な判断を検討する能力を養いました。また資格取得を目指すチームメンバーのための勉強会の開催を実施しました。</t>
   </si>
   <si>
     <t>Bash shell, VBA, VBS, Batch</t>
@@ -187,17 +200,21 @@
     <t>Nagios, Zabbix, Cacti, AWS, Azure</t>
   </si>
   <si>
-    <t xml:space="preserve">インフラエンジニア  </t>
+    <t xml:space="preserve">役割: インフラエンジニア  
+規模: 11～50名  </t>
   </si>
   <si>
     <t>2021年2月 - 2021年7月</t>
   </si>
   <si>
     <t xml:space="preserve">■大規模運用体制を前提とした運用統括業務
-運用管理業務
-運用ルール制定、周知業務
-定例会議出席
-運用業務の改善提案</t>
+・運用管理業務
+・運用ルール制定、周知業務
+・定例会議出席
+・運用業務の改善提案
+■成果・自己PR
+・お客様会議にて質問事項・課題事項を尋ねる時間を設けており、そのための資料を手作業で作成していました。元々質問事項・課題事項は別々のExcelに記載されているため、対象Excelから情報を抽出し、発表しやすい形に加工するVBAスクリプトを作成しました。
+・お客様に提出する月次報告書についてNWトラフィックサマリーをExcelにて作成していました。NW機器は200台前後あり月によって増減するため差分の確認に膨大な時間を要していました。そこで**前月のNWトラフィックシートと最新のNWトラフィックシートを比較し、差分を洗い出すVBAスクリプト**を作成しました。</t>
   </si>
   <si>
     <t>VBA, VBS</t>
@@ -210,12 +227,17 @@
   </si>
   <si>
     <t xml:space="preserve">■インフラ運用保守・移行サポート業務
-本番稼働システム運用保守業務(apache, postfix, sendmail, bind, samba, nagios, vsftpd, oracleDB)
-チームメンバー統括業務
-zabbixサーバ構築・検証
-apacheサーバ構築・検証
-WAF(mod_security)構築・検証
-お客様定例会出席</t>
+・本番稼働システム運用保守業務(apache, postfix, sendmail, bind, samba, nagios, vsftpd, oracleDB)
+・チームメンバー統括業務
+・zabbixサーバ構築・検証
+・apacheサーバ構築・検証
+・WAF(mod_security)構築・検証
+・お客様定例会出席
+■成果・自己PR
+・**Script1**: ブラウザと連携し対象システムにHTTP(S)通信を行い正常性確認を行うVBAスクリプト
+・**Script2**: 月次作業報告書の作成を自動化するPythonスクリプト(seleniumによるスクレイピングで必要データの抽出→pandas, numpyによるデータ加工とCSV出力)
+・**Script3**: zabbixバックアップを取得するbashスクリプト
+・**Script4**: WAFの統計情報(攻撃元IP、攻撃手法)を視覚的に分かりやすく表示するpythonスクリプト</t>
   </si>
   <si>
     <t>VBA, VBS, PowerShell, Python, Batch</t>
@@ -231,13 +253,20 @@
   </si>
   <si>
     <t xml:space="preserve">■英会話教室向けシステム構築及びシステム運用
-Linux、windowsサーバ運用・保守
-オンプレ→AWSへのサーバ移行作業
-server upgrade対応(脆弱性対応含む)
-SQL server移行作業
-提供システム障害対応
-Cisco switch router設定変更作業
-Paloalto GlobalProtectメンテナンス</t>
+・Linux、windowsサーバ運用・保守
+・オンプレ→AWSへのサーバ移行作業
+・server upgrade対応(脆弱性対応含む)
+・SQL server移行作業
+・提供システム障害対応
+・Cisco switch router設定変更作業
+・Paloalto GlobalProtectメンテナンス
+■成果・自己PR
+・**5名のメンバー中3人が英語圏のメンバー**だったため、日常的に英語でコミュニケーションをとっていました。
+・課題が多かったnagiosサーバのチューニングを1人で完遂しました：
+・**Script1**: Google workspaceの情報取得pythonスクリプト
+・**Script2**: Google workspaceの一括情報編集pythonスクリプト
+・**Script3**: CSVに記載したURLのスクリーンショットを取得するpythonスクリプト(50台近くあるRouterやシステムのFQDNの状況を一括確認する際に活用)
+・**Script4**: VMware上で「NWアダプタの自動起動」が無効になっている機器を一括取得するpowershellスクリプト(VMwareのログイン認証も実装)</t>
   </si>
   <si>
     <t>PowerShell, Python, Batch, Bash</t>
@@ -249,15 +278,24 @@
     <t>Git, BIND, RH Satellite, Netbox, AWS, Salt, Nagios</t>
   </si>
   <si>
+    <t xml:space="preserve">役割: インフラエンジニア  
+規模: 6～10名  </t>
+  </si>
+  <si>
     <t>2022年11月 - 2023年9月</t>
   </si>
   <si>
     <t xml:space="preserve">■GCPに構築したデータ分析環境の機能改善と運用
-クラウド環境におけるビッグデータ処理基盤の改善活動
-Terraformで組織内の権限付与業務、インスタンスの作成
-Ansibleでサーバーの設定
-GCPのプロダクトやOSのEOSL対応
-業務時間内の障害検知・障害対応</t>
+・クラウド環境におけるビッグデータ処理基盤の改善活動
+・Terraformで組織内の権限付与業務、インスタンスの作成
+・Ansibleでサーバーの設定
+・GCPのプロダクトやOSのEOSL対応
+・業務時間内の障害検知・障害対応
+■成果・自己PR
+・cron + bashでGCEの夜間起動停止を実施していましたが、コードで管理したいという要望があったため**terraformを用いてcloud scheduler + Cloud functions(python)で夜間起動停止を実装**しました。
+・案件独自の「コンテナの起動基盤でWorkflowを提供するツール」にてキャッチアップを行い、お客様の要件を満たす機能を追加しました。
+・Githubで新たなリポジトリを管理する際にそのリポジトリに対して**terraform plan/applyを自動化する改善をConcourse CI**を用いて行いました。
+・予算削減のために不要になったGCP Projectの除却を行いました。Projectを除却する際の関係各所とのやり取り、terraformのclean up (不要リソースの削除、GSAの付け替え等)、datadogのインテグレーション設定の削除を行い**障害なく完遂**しました。</t>
   </si>
   <si>
     <t>Python, Bash, terraform, ansible</t>
@@ -269,19 +307,29 @@
     <t>GitHub Enterprise, GCP, AWS, docker, JIRA, Confluence, Datadog</t>
   </si>
   <si>
+    <t xml:space="preserve">役割: インフラエンジニア  
+規模: 3名  </t>
+  </si>
+  <si>
     <t>2023年10月 - 2024年5月</t>
   </si>
   <si>
     <t xml:space="preserve">■病院向けアプリのインフラ開発案件
-監視及びサーバ及びネットワークのパラメータシート作成
-ネットワーク設計・構築・保守
-zabbixサーバ構築・保守
-独自監視用scriptの作成
-squidサーバ構築・保守
-AWS SSMを用いたリモート接続環境の構築・保守
-terraformを用いた既存AWSリソースのソース管理の実装
-業務時間内の障害検知・障害対応
-医療向けアプリリリース作業</t>
+・監視及びサーバ及びネットワークのパラメータシート作成
+・ネットワーク設計・構築・保守
+・zabbixサーバ構築・保守
+・独自監視用scriptの作成
+・squidサーバ構築・保守
+・AWS SSMを用いたリモート接続環境の構築・保守
+・terraformを用いた既存AWSリソースのソース管理の実装
+・業務時間内の障害検知・障害対応
+・医療向けアプリリリース作業
+■成果・自己PR
+・**zabbix serverをMac OSに構築する要件**があり、情報が少ない中、要件となるzabbixテンプレート・パラメータシートの作成とslackへの通知機能を**3日で構築**し、スケジュールを大きく早めることができました。
+・zabbixの機能では実現できない監視をbash、powershellを用いて実現するscriptを開発しました。
+・フロントエンドとバックエンド要員が作成したアプリのリリース作業をインフラ及びネットワークの担当者の私が担当し、ネットワークに関する問題をクリアにし、別の病院にリリースする際スムーズに作業できる**ナレッジを作成**しました。
+・**インフラ周りの資料作成**(監視、ネットワーク構成図、作業手順など)を1人で作成し、作業を誰でもできるようにしたのとインフラの見える化に大きく貢献しました。
+・アプリのソースファイルを毎週決まった時間にzipファイルで固めてアップロードする運用でしたが、**全てgithubで完結するよう運用手順を定めて**version管理におけるオーバーヘッドを最小化しました。</t>
   </si>
   <si>
     <t>Python, Bash, powershell, ansible, terraform</t>
@@ -293,18 +341,31 @@
     <t>GitHub, GCP, AWS, docker, zabbix, squid</t>
   </si>
   <si>
+    <t xml:space="preserve">役割: インフラエンジニア  
+規模: 5名  </t>
+  </si>
+  <si>
     <t>2024年6月 - 2025年3月</t>
   </si>
   <si>
     <t xml:space="preserve">■スマートビルディング事業向けwebアプリのクラウド環境開発・既存システムの保守
-github actionsでのCI/CD構築
-datadogを用いた監視設計・実装
-terraformを用いた既存AWSリソースの実装
-terraformを用いた既存GCPリソースの実装
-障害対応
-脆弱性診断
-コスト最適化
-新機能開発</t>
+・github actionsでのCI/CD構築
+・datadogを用いた監視設計・実装
+・terraformを用いた既存AWSリソースの実装
+・terraformを用いた既存GCPリソースの実装
+・障害対応
+・脆弱性診断
+・コスト最適化
+・新機能開発
+■成果・自己PR
+・**インフラ環境のCI/CDを独力で実装**しました
+・既存のterraformで管理されていないリソースのimportを実施し、障害対応が行えるまでキャッチアップしました
+・**AWSのコスト最適化を行い月30万円の削減に成功**しました（[技術記事](https://zenn.dev/zuzuzu/articles/zenn_2024contest)）
+・同一のAWSアカウントにdev環境とprd環境が混在していたので別アカウントに切り離し**ベストプラクティスに準拠した設計に修正**しました
+・rundeckという高機能cronサーバを用いてECSでバッチ処理する仕組みを作りました。その際に実行スパンがコロコロ変わって仕様変更が何度も起きましたが**Fargate型の実装もEC2型の実装も完遂**しました
+・**AWS Inspector、OWASP ZAP、OpenVAS等のペネトレーションテストツール**を用いて脆弱性診断を行いました。またGuard DutyとAWS WAFを使い診断した脆弱性の対応を行いました
+・**IoT Coreで吸い上げたデータを別アカウントのSQSにキューイングしてlambdaでDynamoDBにPut**する等の機能開発を行いました
+・**AIを用いた自動コードレビュー**（[技術記事](https://zenn.dev/zuzuzu/articles/code_rabbit_2025)）の仕組みを作成しました</t>
   </si>
   <si>
     <t>Python, Bash, powershell, terraform, javascript</t>
@@ -316,13 +377,25 @@
     <t>GitHub, GCP, AWS, docker, datadog, Notion, Bytebase</t>
   </si>
   <si>
+    <t xml:space="preserve">役割: インフラエンジニア  
+規模: 4名  </t>
+  </si>
+  <si>
     <t>2025年4月 - 現在</t>
   </si>
   <si>
     <t xml:space="preserve">■人材事業向けwebアプリのクラウド環境の改善
-github actionsでのCI/CD構築
-Cloud Formationで管理しているリソースのterraform化
-障害対応</t>
+・github actionsでのCI/CD構築
+・Cloud Formationで管理しているリソースのterraform化
+・障害対応
+■成果・自己PR
+・**インフラ環境のCI/CDを独力で実装**しました
+・既存のterraformで管理されていないリソースのimportを実施し、**安全に移行**を完了しました
+・**【A】** 業務の独力遂行。業務課題発見・解決。後進教育
+・**【B】** 業務の独力遂行
+・**【C】** 業務を上位者指導のもと遂行
+・**【D】** 実務を通じた学習経験あり
+・**【E】** 学習経験あり</t>
   </si>
   <si>
     <t>terraform, CloudFormation</t>
@@ -551,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,10 +636,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -1039,12 +1115,78 @@
       <c r="C18"/>
       <c r="D18"/>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A18:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -1058,35 +1200,35 @@
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="7" width="15" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="7" width="18" customWidth="1"/>
     <col min="8" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -1096,391 +1238,391 @@
     </row>
     <row r="2" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1503,443 +1645,443 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>84</v>
+      <c r="A1" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" ht="30" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>86</v>
+      <c r="A4" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>88</v>
+      <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>95</v>
+      <c r="A15" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>88</v>
+      <c r="A16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>108</v>
+      <c r="A29" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>88</v>
+      <c r="A30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>119</v>
+      <c r="A42" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>88</v>
+      <c r="A43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>123</v>
+      <c r="A48" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>88</v>
+      <c r="A49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>128</v>
+      <c r="A55" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>88</v>
+      <c r="A56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/zukizukizuki_2025-06-07.xlsx
+++ b/output/excel/zukizukizuki_2025-06-07.xlsx
@@ -149,7 +149,7 @@
     <t>保守・運用</t>
   </si>
   <si>
-    <t>2012年4月 - 2018年7月</t>
+    <t>2012年4月〜2018年7月</t>
   </si>
   <si>
     <t xml:space="preserve">■DC常駐業務
@@ -177,7 +177,7 @@
     <t>●</t>
   </si>
   <si>
-    <t>2018年8月 - 2021年1月</t>
+    <t>2018年8月〜2021年1月</t>
   </si>
   <si>
     <t xml:space="preserve">■インフラ監視、運用保守業務
@@ -204,7 +204,7 @@
 規模: 11～50名  </t>
   </si>
   <si>
-    <t>2021年2月 - 2021年7月</t>
+    <t>2021年2月〜2021年7月</t>
   </si>
   <si>
     <t xml:space="preserve">■大規模運用体制を前提とした運用統括業務
@@ -223,7 +223,7 @@
     <t>Hinemos, Bluecoat, Redmine, SVN</t>
   </si>
   <si>
-    <t>2021年7月 - 2022年1月</t>
+    <t>2021年7月〜2022年1月</t>
   </si>
   <si>
     <t xml:space="preserve">■インフラ運用保守・移行サポート業務
@@ -249,7 +249,7 @@
     <t>Git, Edge DNS, ISWM, CMS, CLUSTERPRO, ModSecurity</t>
   </si>
   <si>
-    <t>2022年2月 - 2022年10月</t>
+    <t>2022年2月〜2022年10月</t>
   </si>
   <si>
     <t xml:space="preserve">■英会話教室向けシステム構築及びシステム運用
@@ -282,7 +282,7 @@
 規模: 6～10名  </t>
   </si>
   <si>
-    <t>2022年11月 - 2023年9月</t>
+    <t>2022年11月〜2023年9月</t>
   </si>
   <si>
     <t xml:space="preserve">■GCPに構築したデータ分析環境の機能改善と運用
@@ -311,7 +311,7 @@
 規模: 3名  </t>
   </si>
   <si>
-    <t>2023年10月 - 2024年5月</t>
+    <t>2023年10月〜2024年5月</t>
   </si>
   <si>
     <t xml:space="preserve">■病院向けアプリのインフラ開発案件
@@ -345,7 +345,7 @@
 規模: 5名  </t>
   </si>
   <si>
-    <t>2024年6月 - 2025年3月</t>
+    <t>2024年6月〜2025年3月</t>
   </si>
   <si>
     <t xml:space="preserve">■スマートビルディング事業向けwebアプリのクラウド環境開発・既存システムの保守
@@ -381,7 +381,7 @@
 規模: 4名  </t>
   </si>
   <si>
-    <t>2025年4月 - 現在</t>
+    <t>2025年4月〜現在</t>
   </si>
   <si>
     <t xml:space="preserve">■人材事業向けwebアプリのクラウド環境の改善

--- a/output/excel/zukizukizuki_2025-06-07.xlsx
+++ b/output/excel/zukizukizuki_2025-06-07.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>スキルシート</t>
   </si>
@@ -149,264 +149,6 @@
     <t>保守・運用</t>
   </si>
   <si>
-    <t>2012年4月〜2018年7月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■DC常駐業務
-・申請書作成およびマクロ作成
-・サーバ停止起動
-・サーバ外観チェック
-・バックアップ媒体管理
-・障害連絡
-・DC入館アテンド
-■成果・自己PR
-・申請書を代筆する業務で申請数が多く多大な労力が必要でした。そこで他3名のメンバーと協力し、Outlookにて送付された申請書作成依頼内容を自動で抽出し、必要な申請書を作成するVBAツールを作成しました。
-・VBAを用いて20ほどある台帳の整合性を確認するツールを作成しました。本来はメンバーが交代で月30時間の工数をかけて目視によるチェックを行っていましたが、VBAマクロを導入し、**その工数分の時間がボタン1回クリックするだけの時間に削減**できました。</t>
-  </si>
-  <si>
-    <t>VBA, VBS, Batch</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">役割: ヘルプデスク  
-規模: 11～50名  </t>
-  </si>
-  <si>
-    <t>●</t>
-  </si>
-  <si>
-    <t>2018年8月〜2021年1月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■インフラ監視、運用保守業務
-・障害アラート対応
-・DC駆けつけ対応
-・サーバ設定変更作業
-・月次報告書作成およびマクロ作成
-・シェルスクリプトの作成
-■成果・自己PR
-・Linux踏み台サーバから違うお客様の環境に誤ってログインしてしまう事象が頻発していました。そこでお客様環境ごとにIDを割り当て、スクリプト実行後にIDを指定し対象の環境にログインするスクリプトを作成・保守し、**ログインによるミスを削減**しました。
-・**1チーム6名のチームにてチームリーダーを経験**。メンバーからエスカレーションを受ける立場として慎重かつ迅速な判断を検討する能力を養いました。また資格取得を目指すチームメンバーのための勉強会の開催を実施しました。</t>
-  </si>
-  <si>
-    <t>Bash shell, VBA, VBS, Batch</t>
-  </si>
-  <si>
-    <t>Windows, CentOS</t>
-  </si>
-  <si>
-    <t>Nagios, Zabbix, Cacti, AWS, Azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">役割: インフラエンジニア  
-規模: 11～50名  </t>
-  </si>
-  <si>
-    <t>2021年2月〜2021年7月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■大規模運用体制を前提とした運用統括業務
-・運用管理業務
-・運用ルール制定、周知業務
-・定例会議出席
-・運用業務の改善提案
-■成果・自己PR
-・お客様会議にて質問事項・課題事項を尋ねる時間を設けており、そのための資料を手作業で作成していました。元々質問事項・課題事項は別々のExcelに記載されているため、対象Excelから情報を抽出し、発表しやすい形に加工するVBAスクリプトを作成しました。
-・お客様に提出する月次報告書についてNWトラフィックサマリーをExcelにて作成していました。NW機器は200台前後あり月によって増減するため差分の確認に膨大な時間を要していました。そこで**前月のNWトラフィックシートと最新のNWトラフィックシートを比較し、差分を洗い出すVBAスクリプト**を作成しました。</t>
-  </si>
-  <si>
-    <t>VBA, VBS</t>
-  </si>
-  <si>
-    <t>Hinemos, Bluecoat, Redmine, SVN</t>
-  </si>
-  <si>
-    <t>2021年7月〜2022年1月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■インフラ運用保守・移行サポート業務
-・本番稼働システム運用保守業務(apache, postfix, sendmail, bind, samba, nagios, vsftpd, oracleDB)
-・チームメンバー統括業務
-・zabbixサーバ構築・検証
-・apacheサーバ構築・検証
-・WAF(mod_security)構築・検証
-・お客様定例会出席
-■成果・自己PR
-・**Script1**: ブラウザと連携し対象システムにHTTP(S)通信を行い正常性確認を行うVBAスクリプト
-・**Script2**: 月次作業報告書の作成を自動化するPythonスクリプト(seleniumによるスクレイピングで必要データの抽出→pandas, numpyによるデータ加工とCSV出力)
-・**Script3**: zabbixバックアップを取得するbashスクリプト
-・**Script4**: WAFの統計情報(攻撃元IP、攻撃手法)を視覚的に分かりやすく表示するpythonスクリプト</t>
-  </si>
-  <si>
-    <t>VBA, VBS, PowerShell, Python, Batch</t>
-  </si>
-  <si>
-    <t>Windows, CentOS, Oracle SQL, Zabbix, IIS, Apache</t>
-  </si>
-  <si>
-    <t>Git, Edge DNS, ISWM, CMS, CLUSTERPRO, ModSecurity</t>
-  </si>
-  <si>
-    <t>2022年2月〜2022年10月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■英会話教室向けシステム構築及びシステム運用
-・Linux、windowsサーバ運用・保守
-・オンプレ→AWSへのサーバ移行作業
-・server upgrade対応(脆弱性対応含む)
-・SQL server移行作業
-・提供システム障害対応
-・Cisco switch router設定変更作業
-・Paloalto GlobalProtectメンテナンス
-■成果・自己PR
-・**5名のメンバー中3人が英語圏のメンバー**だったため、日常的に英語でコミュニケーションをとっていました。
-・課題が多かったnagiosサーバのチューニングを1人で完遂しました：
-・**Script1**: Google workspaceの情報取得pythonスクリプト
-・**Script2**: Google workspaceの一括情報編集pythonスクリプト
-・**Script3**: CSVに記載したURLのスクリーンショットを取得するpythonスクリプト(50台近くあるRouterやシステムのFQDNの状況を一括確認する際に活用)
-・**Script4**: VMware上で「NWアダプタの自動起動」が無効になっている機器を一括取得するpowershellスクリプト(VMwareのログイン認証も実装)</t>
-  </si>
-  <si>
-    <t>PowerShell, Python, Batch, Bash</t>
-  </si>
-  <si>
-    <t>Windows, RHEL, Postgres, Redis, SQL Server, Active Directory, NoSQL</t>
-  </si>
-  <si>
-    <t>Git, BIND, RH Satellite, Netbox, AWS, Salt, Nagios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">役割: インフラエンジニア  
-規模: 6～10名  </t>
-  </si>
-  <si>
-    <t>2022年11月〜2023年9月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■GCPに構築したデータ分析環境の機能改善と運用
-・クラウド環境におけるビッグデータ処理基盤の改善活動
-・Terraformで組織内の権限付与業務、インスタンスの作成
-・Ansibleでサーバーの設定
-・GCPのプロダクトやOSのEOSL対応
-・業務時間内の障害検知・障害対応
-■成果・自己PR
-・cron + bashでGCEの夜間起動停止を実施していましたが、コードで管理したいという要望があったため**terraformを用いてcloud scheduler + Cloud functions(python)で夜間起動停止を実装**しました。
-・案件独自の「コンテナの起動基盤でWorkflowを提供するツール」にてキャッチアップを行い、お客様の要件を満たす機能を追加しました。
-・Githubで新たなリポジトリを管理する際にそのリポジトリに対して**terraform plan/applyを自動化する改善をConcourse CI**を用いて行いました。
-・予算削減のために不要になったGCP Projectの除却を行いました。Projectを除却する際の関係各所とのやり取り、terraformのclean up (不要リソースの削除、GSAの付け替え等)、datadogのインテグレーション設定の削除を行い**障害なく完遂**しました。</t>
-  </si>
-  <si>
-    <t>Python, Bash, terraform, ansible</t>
-  </si>
-  <si>
-    <t>Windows, RHEL, NoSQL, BigQuery</t>
-  </si>
-  <si>
-    <t>GitHub Enterprise, GCP, AWS, docker, JIRA, Confluence, Datadog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">役割: インフラエンジニア  
-規模: 3名  </t>
-  </si>
-  <si>
-    <t>2023年10月〜2024年5月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■病院向けアプリのインフラ開発案件
-・監視及びサーバ及びネットワークのパラメータシート作成
-・ネットワーク設計・構築・保守
-・zabbixサーバ構築・保守
-・独自監視用scriptの作成
-・squidサーバ構築・保守
-・AWS SSMを用いたリモート接続環境の構築・保守
-・terraformを用いた既存AWSリソースのソース管理の実装
-・業務時間内の障害検知・障害対応
-・医療向けアプリリリース作業
-■成果・自己PR
-・**zabbix serverをMac OSに構築する要件**があり、情報が少ない中、要件となるzabbixテンプレート・パラメータシートの作成とslackへの通知機能を**3日で構築**し、スケジュールを大きく早めることができました。
-・zabbixの機能では実現できない監視をbash、powershellを用いて実現するscriptを開発しました。
-・フロントエンドとバックエンド要員が作成したアプリのリリース作業をインフラ及びネットワークの担当者の私が担当し、ネットワークに関する問題をクリアにし、別の病院にリリースする際スムーズに作業できる**ナレッジを作成**しました。
-・**インフラ周りの資料作成**(監視、ネットワーク構成図、作業手順など)を1人で作成し、作業を誰でもできるようにしたのとインフラの見える化に大きく貢献しました。
-・アプリのソースファイルを毎週決まった時間にzipファイルで固めてアップロードする運用でしたが、**全てgithubで完結するよう運用手順を定めて**version管理におけるオーバーヘッドを最小化しました。</t>
-  </si>
-  <si>
-    <t>Python, Bash, powershell, ansible, terraform</t>
-  </si>
-  <si>
-    <t>Windows, RHEL, ubuntu, postgres</t>
-  </si>
-  <si>
-    <t>GitHub, GCP, AWS, docker, zabbix, squid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">役割: インフラエンジニア  
-規模: 5名  </t>
-  </si>
-  <si>
-    <t>2024年6月〜2025年3月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■スマートビルディング事業向けwebアプリのクラウド環境開発・既存システムの保守
-・github actionsでのCI/CD構築
-・datadogを用いた監視設計・実装
-・terraformを用いた既存AWSリソースの実装
-・terraformを用いた既存GCPリソースの実装
-・障害対応
-・脆弱性診断
-・コスト最適化
-・新機能開発
-■成果・自己PR
-・**インフラ環境のCI/CDを独力で実装**しました
-・既存のterraformで管理されていないリソースのimportを実施し、障害対応が行えるまでキャッチアップしました
-・**AWSのコスト最適化を行い月30万円の削減に成功**しました（[技術記事](https://zenn.dev/zuzuzu/articles/zenn_2024contest)）
-・同一のAWSアカウントにdev環境とprd環境が混在していたので別アカウントに切り離し**ベストプラクティスに準拠した設計に修正**しました
-・rundeckという高機能cronサーバを用いてECSでバッチ処理する仕組みを作りました。その際に実行スパンがコロコロ変わって仕様変更が何度も起きましたが**Fargate型の実装もEC2型の実装も完遂**しました
-・**AWS Inspector、OWASP ZAP、OpenVAS等のペネトレーションテストツール**を用いて脆弱性診断を行いました。またGuard DutyとAWS WAFを使い診断した脆弱性の対応を行いました
-・**IoT Coreで吸い上げたデータを別アカウントのSQSにキューイングしてlambdaでDynamoDBにPut**する等の機能開発を行いました
-・**AIを用いた自動コードレビュー**（[技術記事](https://zenn.dev/zuzuzu/articles/code_rabbit_2025)）の仕組みを作成しました</t>
-  </si>
-  <si>
-    <t>Python, Bash, powershell, terraform, javascript</t>
-  </si>
-  <si>
-    <t>Windows, RHEL, ubuntu, mysql, dynamoDB</t>
-  </si>
-  <si>
-    <t>GitHub, GCP, AWS, docker, datadog, Notion, Bytebase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">役割: インフラエンジニア  
-規模: 4名  </t>
-  </si>
-  <si>
-    <t>2025年4月〜現在</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■人材事業向けwebアプリのクラウド環境の改善
-・github actionsでのCI/CD構築
-・Cloud Formationで管理しているリソースのterraform化
-・障害対応
-■成果・自己PR
-・**インフラ環境のCI/CDを独力で実装**しました
-・既存のterraformで管理されていないリソースのimportを実施し、**安全に移行**を完了しました
-・**【A】** 業務の独力遂行。業務課題発見・解決。後進教育
-・**【B】** 業務の独力遂行
-・**【C】** 業務を上位者指導のもと遂行
-・**【D】** 実務を通じた学習経験あり
-・**【E】** 学習経験あり</t>
-  </si>
-  <si>
-    <t>terraform, CloudFormation</t>
-  </si>
-  <si>
-    <t>Windows, RHEL</t>
-  </si>
-  <si>
-    <t>GitHub, AWS, datadog, docker</t>
-  </si>
-  <si>
     <t>■スキル(評価レベル)</t>
   </si>
   <si>
@@ -564,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -583,9 +325,6 @@
     <font>
       <b/>
       <sz val="10"/>
-    </font>
-    <font>
-      <sz val="9"/>
     </font>
     <font>
       <b/>
@@ -624,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,13 +377,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1254,375 +987,6 @@
       </c>
       <c r="M2" s="4" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="120" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1645,32 +1009,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>90</v>
+      <c r="A1" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>92</v>
+      <c r="A4" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>94</v>
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1042,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1050,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1058,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,23 +1066,23 @@
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,362 +1090,362 @@
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>101</v>
+      <c r="A15" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>94</v>
+      <c r="A16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>114</v>
+      <c r="A29" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>94</v>
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>125</v>
+      <c r="A42" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>94</v>
+      <c r="A43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>129</v>
+      <c r="A48" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>94</v>
+      <c r="A49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>134</v>
+      <c r="A55" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>94</v>
+      <c r="A56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
